--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf17-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf17-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Fgf17</t>
   </si>
   <si>
     <t>Fgfr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.366566</v>
+        <v>0.1403416666666667</v>
       </c>
       <c r="H2">
-        <v>1.099698</v>
+        <v>0.421025</v>
       </c>
       <c r="I2">
-        <v>0.5689653834353526</v>
+        <v>0.1831816192293602</v>
       </c>
       <c r="J2">
-        <v>0.5689653834353527</v>
+        <v>0.1831816192293602</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2365093333333333</v>
+        <v>0.4581623333333333</v>
       </c>
       <c r="N2">
-        <v>0.7095279999999999</v>
+        <v>1.374487</v>
       </c>
       <c r="O2">
-        <v>0.006013533229697845</v>
+        <v>0.1060599910922654</v>
       </c>
       <c r="P2">
-        <v>0.006013533229697844</v>
+        <v>0.1060599910922654</v>
       </c>
       <c r="Q2">
-        <v>0.08669628028266667</v>
+        <v>0.06429926546388889</v>
       </c>
       <c r="R2">
-        <v>0.780266522544</v>
+        <v>0.578693389175</v>
       </c>
       <c r="S2">
-        <v>0.003421492239836269</v>
+        <v>0.0194282409037327</v>
       </c>
       <c r="T2">
-        <v>0.003421492239836269</v>
+        <v>0.0194282409037327</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.366566</v>
+        <v>0.1403416666666667</v>
       </c>
       <c r="H3">
-        <v>1.099698</v>
+        <v>0.421025</v>
       </c>
       <c r="I3">
-        <v>0.5689653834353526</v>
+        <v>0.1831816192293602</v>
       </c>
       <c r="J3">
-        <v>0.5689653834353527</v>
+        <v>0.1831816192293602</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,28 +617,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.07510100000000001</v>
+        <v>0.075101</v>
       </c>
       <c r="N3">
         <v>0.225303</v>
       </c>
       <c r="O3">
-        <v>0.001909532925058086</v>
+        <v>0.01738512926863672</v>
       </c>
       <c r="P3">
-        <v>0.001909532925058086</v>
+        <v>0.01738512926863672</v>
       </c>
       <c r="Q3">
-        <v>0.027529473166</v>
+        <v>0.01053979950833333</v>
       </c>
       <c r="R3">
-        <v>0.2477652584940001</v>
+        <v>0.094858195575</v>
       </c>
       <c r="S3">
-        <v>0.001086458132888105</v>
+        <v>0.003184636129940617</v>
       </c>
       <c r="T3">
-        <v>0.001086458132888105</v>
+        <v>0.003184636129940617</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,75 +646,75 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.1403416666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.421025</v>
+      </c>
+      <c r="I4">
+        <v>0.1831816192293602</v>
+      </c>
+      <c r="J4">
+        <v>0.1831816192293602</v>
+      </c>
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.366566</v>
-      </c>
-      <c r="H4">
-        <v>1.099698</v>
-      </c>
-      <c r="I4">
-        <v>0.5689653834353526</v>
-      </c>
-      <c r="J4">
-        <v>0.5689653834353527</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.006358</v>
+        <v>3.786578</v>
       </c>
       <c r="N4">
-        <v>0.019074</v>
+        <v>11.359734</v>
       </c>
       <c r="O4">
-        <v>0.0001616597693442073</v>
+        <v>0.8765548796390978</v>
       </c>
       <c r="P4">
-        <v>0.0001616597693442073</v>
+        <v>0.8765548796390978</v>
       </c>
       <c r="Q4">
-        <v>0.002330626628</v>
+        <v>0.5314146674833333</v>
       </c>
       <c r="R4">
-        <v>0.020975639652</v>
+        <v>4.78273200735</v>
       </c>
       <c r="S4">
-        <v>9.197881265099755E-05</v>
+        <v>0.1605687421956869</v>
       </c>
       <c r="T4">
-        <v>9.197881265099757E-05</v>
+        <v>0.1605687421956869</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,54 +729,54 @@
         <v>1.099698</v>
       </c>
       <c r="I5">
-        <v>0.5689653834353526</v>
+        <v>0.4784619922885553</v>
       </c>
       <c r="J5">
-        <v>0.5689653834353527</v>
+        <v>0.4784619922885552</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>38.91081433333333</v>
+        <v>0.4581623333333333</v>
       </c>
       <c r="N5">
-        <v>116.732443</v>
+        <v>1.374487</v>
       </c>
       <c r="O5">
-        <v>0.9893540846369833</v>
+        <v>0.1060599910922654</v>
       </c>
       <c r="P5">
-        <v>0.9893540846369833</v>
+        <v>0.1060599910922654</v>
       </c>
       <c r="Q5">
-        <v>14.26338156691267</v>
+        <v>0.1679467338806667</v>
       </c>
       <c r="R5">
-        <v>128.370434102214</v>
+        <v>1.511520604926</v>
       </c>
       <c r="S5">
-        <v>0.5629082261188135</v>
+        <v>0.05074567464011174</v>
       </c>
       <c r="T5">
-        <v>0.5629082261188136</v>
+        <v>0.05074567464011174</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,40 +791,40 @@
         <v>1.099698</v>
       </c>
       <c r="I6">
-        <v>0.5689653834353526</v>
+        <v>0.4784619922885553</v>
       </c>
       <c r="J6">
-        <v>0.5689653834353527</v>
+        <v>0.4784619922885552</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1007303333333333</v>
+        <v>0.075101</v>
       </c>
       <c r="N6">
-        <v>0.302191</v>
+        <v>0.225303</v>
       </c>
       <c r="O6">
-        <v>0.002561189438916605</v>
+        <v>0.01738512926863672</v>
       </c>
       <c r="P6">
-        <v>0.002561189438916605</v>
+        <v>0.01738512926863672</v>
       </c>
       <c r="Q6">
-        <v>0.03692431536866667</v>
+        <v>0.027529473166</v>
       </c>
       <c r="R6">
-        <v>0.332318838318</v>
+        <v>0.247765258494</v>
       </c>
       <c r="S6">
-        <v>0.001457228131163762</v>
+        <v>0.008318123586065998</v>
       </c>
       <c r="T6">
-        <v>0.001457228131163762</v>
+        <v>0.008318123586065998</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,140 +847,140 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2777016666666667</v>
+        <v>0.366566</v>
       </c>
       <c r="H7">
-        <v>0.833105</v>
+        <v>1.099698</v>
       </c>
       <c r="I7">
-        <v>0.4310346165646473</v>
+        <v>0.4784619922885553</v>
       </c>
       <c r="J7">
-        <v>0.4310346165646473</v>
+        <v>0.4784619922885552</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2365093333333333</v>
+        <v>3.786578</v>
       </c>
       <c r="N7">
-        <v>0.7095279999999999</v>
+        <v>11.359734</v>
       </c>
       <c r="O7">
-        <v>0.006013533229697845</v>
+        <v>0.8765548796390978</v>
       </c>
       <c r="P7">
-        <v>0.006013533229697844</v>
+        <v>0.8765548796390978</v>
       </c>
       <c r="Q7">
-        <v>0.06567903604888889</v>
+        <v>1.388030751148</v>
       </c>
       <c r="R7">
-        <v>0.5911113244399999</v>
+        <v>12.492276760332</v>
       </c>
       <c r="S7">
-        <v>0.002592040989861576</v>
+        <v>0.4193981940623775</v>
       </c>
       <c r="T7">
-        <v>0.002592040989861575</v>
+        <v>0.4193981940623775</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.2777016666666667</v>
+        <v>0.12712</v>
       </c>
       <c r="H8">
-        <v>0.833105</v>
+        <v>0.38136</v>
       </c>
       <c r="I8">
-        <v>0.4310346165646473</v>
+        <v>0.1659239767455824</v>
       </c>
       <c r="J8">
-        <v>0.4310346165646473</v>
+        <v>0.1659239767455823</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.07510100000000001</v>
+        <v>0.4581623333333333</v>
       </c>
       <c r="N8">
-        <v>0.225303</v>
+        <v>1.374487</v>
       </c>
       <c r="O8">
-        <v>0.001909532925058086</v>
+        <v>0.1060599910922654</v>
       </c>
       <c r="P8">
-        <v>0.001909532925058086</v>
+        <v>0.1060599910922654</v>
       </c>
       <c r="Q8">
-        <v>0.02085567286833334</v>
+        <v>0.05824159581333334</v>
       </c>
       <c r="R8">
-        <v>0.187701055815</v>
+        <v>0.52417436232</v>
       </c>
       <c r="S8">
-        <v>0.0008230747921699817</v>
+        <v>0.01759789549562972</v>
       </c>
       <c r="T8">
-        <v>0.0008230747921699814</v>
+        <v>0.01759789549562972</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.2777016666666667</v>
+        <v>0.12712</v>
       </c>
       <c r="H9">
-        <v>0.833105</v>
+        <v>0.38136</v>
       </c>
       <c r="I9">
-        <v>0.4310346165646473</v>
+        <v>0.1659239767455824</v>
       </c>
       <c r="J9">
-        <v>0.4310346165646473</v>
+        <v>0.1659239767455823</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,60 +989,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.006358</v>
+        <v>0.075101</v>
       </c>
       <c r="N9">
-        <v>0.019074</v>
+        <v>0.225303</v>
       </c>
       <c r="O9">
-        <v>0.0001616597693442073</v>
+        <v>0.01738512926863672</v>
       </c>
       <c r="P9">
-        <v>0.0001616597693442073</v>
+        <v>0.01738512926863672</v>
       </c>
       <c r="Q9">
-        <v>0.001765627196666667</v>
+        <v>0.009546839120000001</v>
       </c>
       <c r="R9">
-        <v>0.01589064477</v>
+        <v>0.08592155208</v>
       </c>
       <c r="S9">
-        <v>6.96809566932097E-05</v>
+        <v>0.002884609784488222</v>
       </c>
       <c r="T9">
-        <v>6.96809566932097E-05</v>
+        <v>0.002884609784488222</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.2777016666666667</v>
+        <v>0.12712</v>
       </c>
       <c r="H10">
-        <v>0.833105</v>
+        <v>0.38136</v>
       </c>
       <c r="I10">
-        <v>0.4310346165646473</v>
+        <v>0.1659239767455824</v>
       </c>
       <c r="J10">
-        <v>0.4310346165646473</v>
+        <v>0.1659239767455823</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,60 +1051,60 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>38.91081433333333</v>
+        <v>3.786578</v>
       </c>
       <c r="N10">
-        <v>116.732443</v>
+        <v>11.359734</v>
       </c>
       <c r="O10">
-        <v>0.9893540846369833</v>
+        <v>0.8765548796390978</v>
       </c>
       <c r="P10">
-        <v>0.9893540846369833</v>
+        <v>0.8765548796390978</v>
       </c>
       <c r="Q10">
-        <v>10.80559799172389</v>
+        <v>0.4813497953600001</v>
       </c>
       <c r="R10">
-        <v>97.25038192551499</v>
+        <v>4.33214815824</v>
       </c>
       <c r="S10">
-        <v>0.4264458585181697</v>
+        <v>0.1454414714654644</v>
       </c>
       <c r="T10">
-        <v>0.4264458585181697</v>
+        <v>0.1454414714654644</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.2777016666666667</v>
+        <v>0.1321063333333333</v>
       </c>
       <c r="H11">
-        <v>0.833105</v>
+        <v>0.396319</v>
       </c>
       <c r="I11">
-        <v>0.4310346165646473</v>
+        <v>0.1724324117365021</v>
       </c>
       <c r="J11">
-        <v>0.4310346165646473</v>
+        <v>0.1724324117365021</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,28 +1113,152 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.1007303333333333</v>
+        <v>0.4581623333333333</v>
       </c>
       <c r="N11">
-        <v>0.302191</v>
+        <v>1.374487</v>
       </c>
       <c r="O11">
-        <v>0.002561189438916605</v>
+        <v>0.1060599910922654</v>
       </c>
       <c r="P11">
-        <v>0.002561189438916605</v>
+        <v>0.1060599910922654</v>
       </c>
       <c r="Q11">
-        <v>0.02797298145055556</v>
+        <v>0.06052614592811111</v>
       </c>
       <c r="R11">
-        <v>0.251756833055</v>
+        <v>0.544735313353</v>
       </c>
       <c r="S11">
-        <v>0.001103961307752843</v>
+        <v>0.01828818005279126</v>
       </c>
       <c r="T11">
-        <v>0.001103961307752843</v>
+        <v>0.01828818005279126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.1321063333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.396319</v>
+      </c>
+      <c r="I12">
+        <v>0.1724324117365021</v>
+      </c>
+      <c r="J12">
+        <v>0.1724324117365021</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.075101</v>
+      </c>
+      <c r="N12">
+        <v>0.225303</v>
+      </c>
+      <c r="O12">
+        <v>0.01738512926863672</v>
+      </c>
+      <c r="P12">
+        <v>0.01738512926863672</v>
+      </c>
+      <c r="Q12">
+        <v>0.009921317739666665</v>
+      </c>
+      <c r="R12">
+        <v>0.089291859657</v>
+      </c>
+      <c r="S12">
+        <v>0.002997759768141881</v>
+      </c>
+      <c r="T12">
+        <v>0.002997759768141881</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.1321063333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.396319</v>
+      </c>
+      <c r="I13">
+        <v>0.1724324117365021</v>
+      </c>
+      <c r="J13">
+        <v>0.1724324117365021</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.786578</v>
+      </c>
+      <c r="N13">
+        <v>11.359734</v>
+      </c>
+      <c r="O13">
+        <v>0.8765548796390978</v>
+      </c>
+      <c r="P13">
+        <v>0.8765548796390978</v>
+      </c>
+      <c r="Q13">
+        <v>0.5002309354606667</v>
+      </c>
+      <c r="R13">
+        <v>4.502078419146</v>
+      </c>
+      <c r="S13">
+        <v>0.151146471915569</v>
+      </c>
+      <c r="T13">
+        <v>0.151146471915569</v>
       </c>
     </row>
   </sheetData>
